--- a/SP_Sklad/TempLate/SvcOutShort(20).xlsx
+++ b/SP_Sklad/TempLate/SvcOutShort(20).xlsx
@@ -16,7 +16,7 @@
     <definedName name="SvcOutDet">Лист1!$A$11:$I$12</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">Лист1!$7:$8</definedName>
   </definedNames>
-  <calcPr calcId="144525" fullCalcOnLoad="1"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
@@ -67,9 +67,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="183" formatCode="mm/dd/yy"/>
+    <numFmt numFmtId="164" formatCode="mm/dd/yy"/>
   </numFmts>
-  <fonts count="24" x14ac:knownFonts="1">
+  <fonts count="23" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial Cyr"/>
@@ -83,13 +83,6 @@
     </font>
     <font>
       <b/>
-      <sz val="10"/>
-      <color indexed="18"/>
-      <name val="Times New Roman Cyr"/>
-      <family val="1"/>
-      <charset val="204"/>
-    </font>
-    <font>
       <sz val="10"/>
       <color indexed="18"/>
       <name val="Times New Roman Cyr"/>
@@ -505,122 +498,119 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="183" fontId="9" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="8" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="14" fontId="7" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="8" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="2" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="2" fontId="7" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="6" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="12" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="14" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="14" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="14" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="7" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="2" fontId="11" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="2" fontId="10" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="2" fontId="2" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="2" fontId="7" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="6" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="13" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="13" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="13" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="14" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="14" fontId="14" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="14" fontId="14" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -992,7 +982,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Лист1"/>
-  <dimension ref="B1:K99"/>
+  <dimension ref="B1:K16"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
@@ -1014,16 +1004,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:11" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="52" t="s">
+      <c r="B1" s="40" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="52"/>
-      <c r="D1" s="52"/>
-      <c r="E1" s="52"/>
-      <c r="F1" s="52"/>
-      <c r="G1" s="52"/>
-      <c r="H1" s="52"/>
-      <c r="I1" s="52"/>
+      <c r="C1" s="40"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="40"/>
+      <c r="F1" s="40"/>
+      <c r="G1" s="40"/>
+      <c r="H1" s="40"/>
+      <c r="I1" s="40"/>
     </row>
     <row r="2" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="13"/>
@@ -1083,36 +1073,36 @@
     </row>
     <row r="6" spans="2:11" ht="9" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="7" spans="2:11" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="40" t="s">
+      <c r="B7" s="41" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="42" t="s">
+      <c r="C7" s="51" t="s">
         <v>12</v>
       </c>
-      <c r="D7" s="43"/>
-      <c r="E7" s="44"/>
-      <c r="F7" s="44" t="s">
+      <c r="D7" s="52"/>
+      <c r="E7" s="43"/>
+      <c r="F7" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="G7" s="40" t="s">
+      <c r="G7" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="H7" s="40" t="s">
+      <c r="H7" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="I7" s="40" t="s">
+      <c r="I7" s="41" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="8" spans="2:11" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="41"/>
-      <c r="C8" s="45"/>
-      <c r="D8" s="46"/>
-      <c r="E8" s="47"/>
-      <c r="F8" s="47"/>
-      <c r="G8" s="41"/>
-      <c r="H8" s="41"/>
-      <c r="I8" s="41"/>
+      <c r="B8" s="42"/>
+      <c r="C8" s="53"/>
+      <c r="D8" s="54"/>
+      <c r="E8" s="44"/>
+      <c r="F8" s="44"/>
+      <c r="G8" s="42"/>
+      <c r="H8" s="42"/>
+      <c r="I8" s="42"/>
     </row>
     <row r="9" spans="2:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="15"/>
@@ -1125,17 +1115,17 @@
       <c r="I9" s="36"/>
     </row>
     <row r="10" spans="2:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="53" t="e">
+      <c r="B10" s="45" t="e">
         <f>SvcGroup_NAME</f>
         <v>#NAME?</v>
       </c>
-      <c r="C10" s="54"/>
-      <c r="D10" s="54"/>
-      <c r="E10" s="54"/>
-      <c r="F10" s="54"/>
-      <c r="G10" s="54"/>
-      <c r="H10" s="54"/>
-      <c r="I10" s="55"/>
+      <c r="C10" s="46"/>
+      <c r="D10" s="46"/>
+      <c r="E10" s="46"/>
+      <c r="F10" s="46"/>
+      <c r="G10" s="46"/>
+      <c r="H10" s="46"/>
+      <c r="I10" s="47"/>
     </row>
     <row r="11" spans="2:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="25"/>
@@ -1217,118 +1207,17 @@
       <c r="H16" s="4"/>
       <c r="I16" s="4"/>
     </row>
-    <row r="17" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G17" s="2"/>
-      <c r="H17" s="2"/>
-      <c r="I17" s="2"/>
-    </row>
-    <row r="18" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B18" s="51"/>
-      <c r="C18" s="51"/>
-      <c r="D18" s="51"/>
-      <c r="E18" s="51"/>
-      <c r="F18" s="51"/>
-      <c r="G18" s="4"/>
-      <c r="H18" s="4"/>
-      <c r="I18" s="4"/>
-    </row>
-    <row r="19" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G19" s="4"/>
-      <c r="H19" s="4"/>
-      <c r="I19" s="4"/>
-    </row>
-    <row r="20" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="21" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="22" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="23" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="24" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="25" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="26" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="27" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="28" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="29" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="30" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="31" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="32" spans="2:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="33" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="34" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="35" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="36" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="37" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="38" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="39" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="40" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="41" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="42" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="43" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="44" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="45" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="46" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="47" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="48" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="49" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="50" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="51" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="52" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="53" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="54" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="55" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="56" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="57" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="58" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="59" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="60" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="61" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="62" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="63" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="64" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="65" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="66" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="67" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="68" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="69" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="70" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="71" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="72" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="73" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="74" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="75" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="76" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="77" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="78" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="79" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="80" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="81" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="82" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="83" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="84" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="85" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="86" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="87" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="88" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="89" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="90" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="91" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="92" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="93" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="94" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="95" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="96" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="97" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="98" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="99" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
-  <mergeCells count="10">
-    <mergeCell ref="H7:H8"/>
+  <mergeCells count="9">
     <mergeCell ref="B10:I10"/>
     <mergeCell ref="C11:E11"/>
     <mergeCell ref="I7:I8"/>
     <mergeCell ref="C7:E8"/>
-    <mergeCell ref="B18:F18"/>
     <mergeCell ref="B1:I1"/>
     <mergeCell ref="B7:B8"/>
     <mergeCell ref="F7:F8"/>
     <mergeCell ref="G7:G8"/>
+    <mergeCell ref="H7:H8"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
